--- a/biology/Zoologie/Drymaeus/Drymaeus.xlsx
+++ b/biology/Zoologie/Drymaeus/Drymaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drymaeus est un genre d'escargots néotropicaux de taille moyenne de la famille des Bulimulidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Drymaeus a été créé en 1850 par le médecin, botaniste et malacologiste allemand Johann Christoph Albers (d) (1795-1857)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Drymaeus a été créé en 1850 par le médecin, botaniste et malacologiste allemand Johann Christoph Albers (d) (1795-1857),.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Drymaeus se caractérisent par une coquille allongée, conique à oblongue, aux premiers tours apicaux portant une fine sculpture de rides axiales et spirales entrecroisées orthogonalement, auxquels se corrèlent une morphologie de mâchoire et de radula propre au genre.
-Le genre Dryameus est riche de près de 400 espèces[1]. La plupart sont arboricoles[3]. Ces escargots peuvent être vivement colorés voire polychromatiques.  
-Au sein du genre Drymaeus, la variabilité morphologique tient à l’expression typique ou non de la sculpture apicale, la forme globale (triangulaire ou oblongue) de la coquille ainsi que la forme de l’ouverture et le caractère réfléchi ou non de la lèvre extérieure[3].
+Le genre Dryameus est riche de près de 400 espèces. La plupart sont arboricoles. Ces escargots peuvent être vivement colorés voire polychromatiques.  
+Au sein du genre Drymaeus, la variabilité morphologique tient à l’expression typique ou non de la sculpture apicale, la forme globale (triangulaire ou oblongue) de la coquille ainsi que la forme de l’ouverture et le caractère réfléchi ou non de la lèvre extérieure.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Drymaeus se rencontrent dans le Sud de l'Amérique du Nord (Floride, Texas), en Amérique Centrale et en Amérique du Sud ainsi que dans les Caraïbes.
 </t>
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -632,7 +652,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Joh. Christ. Albers, Die heliceen nach natürlicher verwandtschaft systematisch geordnet,  (publication), Inconnu, Berlin, 1850, [lire en ligne]</t>
         </is>
